--- a/Lec. y Esc. Texto Academicos/Primer Parcial/Boletos Lectura.xlsx
+++ b/Lec. y Esc. Texto Academicos/Primer Parcial/Boletos Lectura.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07B9625-A031-4166-B4CF-2AF85C1A94FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rquis\OneDrive\Escritorio\7mo-Semestre\Lec. y Esc. Texto Academicos\Primer Parcial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA34686-F537-42A8-98C7-B3F843CB568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>BOLETOS LEC Y ESCRITURA</t>
   </si>
@@ -82,13 +87,16 @@
   </si>
   <si>
     <t>Daniela Tituania</t>
+  </si>
+  <si>
+    <t>Moises Belnacazar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,10 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,26 +527,26 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -561,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -574,17 +582,17 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -601,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -618,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -635,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -652,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -672,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -689,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -706,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -723,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -740,24 +748,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>SUM(D3:D15)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <f>SUM(F3:F15)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
